--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Amhr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Amhr2</t>
   </si>
 </sst>
 </file>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.36304</v>
+        <v>0.294587</v>
       </c>
       <c r="H2">
-        <v>1.08912</v>
+        <v>0.883761</v>
       </c>
       <c r="I2">
-        <v>0.1912137398884271</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J2">
-        <v>0.191213739888427</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.028821</v>
+        <v>0.1785033333333333</v>
       </c>
       <c r="N2">
-        <v>0.086463</v>
+        <v>0.53551</v>
       </c>
       <c r="O2">
-        <v>0.02520600515297118</v>
+        <v>0.132093478502712</v>
       </c>
       <c r="P2">
-        <v>0.02520600515297118</v>
+        <v>0.132093478502712</v>
       </c>
       <c r="Q2">
-        <v>0.01046317584</v>
+        <v>0.05258476145666667</v>
       </c>
       <c r="R2">
-        <v>0.09416858256000001</v>
+        <v>0.47326285311</v>
       </c>
       <c r="S2">
-        <v>0.004819734512946585</v>
+        <v>0.02655351225102421</v>
       </c>
       <c r="T2">
-        <v>0.004819734512946584</v>
+        <v>0.0265535122510242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.36304</v>
+        <v>0.294587</v>
       </c>
       <c r="H3">
-        <v>1.08912</v>
+        <v>0.883761</v>
       </c>
       <c r="I3">
-        <v>0.1912137398884271</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J3">
-        <v>0.191213739888427</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6758093333333332</v>
+        <v>0.6758093333333334</v>
       </c>
       <c r="N3">
         <v>2.027428</v>
       </c>
       <c r="O3">
-        <v>0.5910431122593254</v>
+        <v>0.5001027374536356</v>
       </c>
       <c r="P3">
-        <v>0.5910431122593254</v>
+        <v>0.5001027374536355</v>
       </c>
       <c r="Q3">
-        <v>0.2453458203733333</v>
+        <v>0.1990846440786667</v>
       </c>
       <c r="R3">
-        <v>2.20811238336</v>
+        <v>1.791761796708</v>
       </c>
       <c r="S3">
-        <v>0.113015563930401</v>
+        <v>0.1005309597133004</v>
       </c>
       <c r="T3">
-        <v>0.113015563930401</v>
+        <v>0.1005309597133004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,75 +646,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.294587</v>
+      </c>
+      <c r="H4">
+        <v>0.883761</v>
+      </c>
+      <c r="I4">
+        <v>0.2010206147344287</v>
+      </c>
+      <c r="J4">
+        <v>0.2010206147344287</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.36304</v>
-      </c>
-      <c r="H4">
-        <v>1.08912</v>
-      </c>
-      <c r="I4">
-        <v>0.1912137398884271</v>
-      </c>
-      <c r="J4">
-        <v>0.191213739888427</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.4387876666666667</v>
+        <v>0.3973076666666667</v>
       </c>
       <c r="N4">
-        <v>1.316363</v>
+        <v>1.191923</v>
       </c>
       <c r="O4">
-        <v>0.3837508825877036</v>
+        <v>0.2940099254493623</v>
       </c>
       <c r="P4">
-        <v>0.3837508825877035</v>
+        <v>0.2940099254493623</v>
       </c>
       <c r="Q4">
-        <v>0.1592974745066667</v>
+        <v>0.1170416736003333</v>
       </c>
       <c r="R4">
-        <v>1.43367727056</v>
+        <v>1.053375062403</v>
       </c>
       <c r="S4">
-        <v>0.07337844144507948</v>
+        <v>0.05910205595185435</v>
       </c>
       <c r="T4">
-        <v>0.07337844144507945</v>
+        <v>0.05910205595185435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.883761</v>
       </c>
       <c r="I5">
-        <v>0.155159436956016</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J5">
-        <v>0.155159436956016</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.028821</v>
+        <v>0.09972066666666667</v>
       </c>
       <c r="N5">
-        <v>0.086463</v>
+        <v>0.299162</v>
       </c>
       <c r="O5">
-        <v>0.02520600515297118</v>
+        <v>0.07379385859429018</v>
       </c>
       <c r="P5">
-        <v>0.02520600515297118</v>
+        <v>0.07379385859429016</v>
       </c>
       <c r="Q5">
-        <v>0.008490291927</v>
+        <v>0.02937641203133333</v>
       </c>
       <c r="R5">
-        <v>0.076412627343</v>
+        <v>0.264387708282</v>
       </c>
       <c r="S5">
-        <v>0.003910949567445448</v>
+        <v>0.01483408681824971</v>
       </c>
       <c r="T5">
-        <v>0.003910949567445447</v>
+        <v>0.01483408681824971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.294587</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H6">
-        <v>0.883761</v>
+        <v>3.09655</v>
       </c>
       <c r="I6">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J6">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6758093333333332</v>
+        <v>0.1785033333333333</v>
       </c>
       <c r="N6">
-        <v>2.027428</v>
+        <v>0.53551</v>
       </c>
       <c r="O6">
-        <v>0.5910431122593254</v>
+        <v>0.132093478502712</v>
       </c>
       <c r="P6">
-        <v>0.5910431122593254</v>
+        <v>0.132093478502712</v>
       </c>
       <c r="Q6">
-        <v>0.1990846440786666</v>
+        <v>0.1842481656111111</v>
       </c>
       <c r="R6">
-        <v>1.791761796708</v>
+        <v>1.6582334905</v>
       </c>
       <c r="S6">
-        <v>0.0917059165148883</v>
+        <v>0.09303904376964926</v>
       </c>
       <c r="T6">
-        <v>0.0917059165148883</v>
+        <v>0.09303904376964925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,75 +832,75 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.294587</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H7">
-        <v>0.883761</v>
+        <v>3.09655</v>
       </c>
       <c r="I7">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J7">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4387876666666667</v>
+        <v>0.6758093333333334</v>
       </c>
       <c r="N7">
-        <v>1.316363</v>
+        <v>2.027428</v>
       </c>
       <c r="O7">
-        <v>0.3837508825877036</v>
+        <v>0.5001027374536356</v>
       </c>
       <c r="P7">
-        <v>0.3837508825877035</v>
+        <v>0.5001027374536355</v>
       </c>
       <c r="Q7">
-        <v>0.1292611423603333</v>
+        <v>0.6975591303777777</v>
       </c>
       <c r="R7">
-        <v>1.163350281243</v>
+        <v>6.2780321734</v>
       </c>
       <c r="S7">
-        <v>0.0595425708736823</v>
+        <v>0.3522435854266259</v>
       </c>
       <c r="T7">
-        <v>0.05954257087368229</v>
+        <v>0.3522435854266259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,60 +909,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9616966666666666</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H8">
-        <v>2.88509</v>
+        <v>3.09655</v>
       </c>
       <c r="I8">
-        <v>0.5065271492716156</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J8">
-        <v>0.5065271492716156</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.028821</v>
+        <v>0.3973076666666667</v>
       </c>
       <c r="N8">
-        <v>0.086463</v>
+        <v>1.191923</v>
       </c>
       <c r="O8">
-        <v>0.02520600515297118</v>
+        <v>0.2940099254493623</v>
       </c>
       <c r="P8">
-        <v>0.02520600515297118</v>
+        <v>0.2940099254493623</v>
       </c>
       <c r="Q8">
-        <v>0.02771705963</v>
+        <v>0.4100943517388889</v>
       </c>
       <c r="R8">
-        <v>0.24945353667</v>
+        <v>3.69084916565</v>
       </c>
       <c r="S8">
-        <v>0.01276752593466015</v>
+        <v>0.2070836700846887</v>
       </c>
       <c r="T8">
-        <v>0.01276752593466014</v>
+        <v>0.2070836700846887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9616966666666666</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H9">
-        <v>2.88509</v>
+        <v>3.09655</v>
       </c>
       <c r="I9">
-        <v>0.5065271492716156</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J9">
-        <v>0.5065271492716156</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6758093333333332</v>
+        <v>0.09972066666666667</v>
       </c>
       <c r="N9">
-        <v>2.027428</v>
+        <v>0.299162</v>
       </c>
       <c r="O9">
-        <v>0.5910431122593254</v>
+        <v>0.07379385859429018</v>
       </c>
       <c r="P9">
-        <v>0.5910431122593254</v>
+        <v>0.07379385859429016</v>
       </c>
       <c r="Q9">
-        <v>0.6499235831688887</v>
+        <v>0.1029300101222222</v>
       </c>
       <c r="R9">
-        <v>5.849312248519999</v>
+        <v>0.9263700910999999</v>
       </c>
       <c r="S9">
-        <v>0.2993793827493396</v>
+        <v>0.05197614687347727</v>
       </c>
       <c r="T9">
-        <v>0.2993793827493396</v>
+        <v>0.05197614687347726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,155 +1018,155 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.9616966666666666</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H10">
-        <v>2.88509</v>
+        <v>0.416059</v>
       </c>
       <c r="I10">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J10">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.4387876666666667</v>
+        <v>0.1785033333333333</v>
       </c>
       <c r="N10">
-        <v>1.316363</v>
+        <v>0.53551</v>
       </c>
       <c r="O10">
-        <v>0.3837508825877036</v>
+        <v>0.132093478502712</v>
       </c>
       <c r="P10">
-        <v>0.3837508825877035</v>
+        <v>0.132093478502712</v>
       </c>
       <c r="Q10">
-        <v>0.4219806364077778</v>
+        <v>0.02475597278777778</v>
       </c>
       <c r="R10">
-        <v>3.79782572767</v>
+        <v>0.22280375509</v>
       </c>
       <c r="S10">
-        <v>0.1943802405876159</v>
+        <v>0.01250092248203856</v>
       </c>
       <c r="T10">
-        <v>0.1943802405876159</v>
+        <v>0.01250092248203856</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1386863333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.416059</v>
+      </c>
+      <c r="I11">
+        <v>0.09463693911113033</v>
+      </c>
+      <c r="J11">
+        <v>0.09463693911113034</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.2792846666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.837854</v>
-      </c>
-      <c r="I11">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="J11">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M11">
-        <v>0.028821</v>
+        <v>0.6758093333333334</v>
       </c>
       <c r="N11">
-        <v>0.086463</v>
+        <v>2.027428</v>
       </c>
       <c r="O11">
-        <v>0.02520600515297118</v>
+        <v>0.5001027374536356</v>
       </c>
       <c r="P11">
-        <v>0.02520600515297118</v>
+        <v>0.5001027374536355</v>
       </c>
       <c r="Q11">
-        <v>0.008049263378</v>
+        <v>0.09372551847244445</v>
       </c>
       <c r="R11">
-        <v>0.072443370402</v>
+        <v>0.843529666252</v>
       </c>
       <c r="S11">
-        <v>0.003707795137919006</v>
+        <v>0.04732819231370931</v>
       </c>
       <c r="T11">
-        <v>0.003707795137919005</v>
+        <v>0.04732819231370931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2792846666666667</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H12">
-        <v>0.837854</v>
+        <v>0.416059</v>
       </c>
       <c r="I12">
-        <v>0.1470996738839413</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J12">
-        <v>0.1470996738839413</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,90 +1175,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6758093333333332</v>
+        <v>0.3973076666666667</v>
       </c>
       <c r="N12">
-        <v>2.027428</v>
+        <v>1.191923</v>
       </c>
       <c r="O12">
-        <v>0.5910431122593254</v>
+        <v>0.2940099254493623</v>
       </c>
       <c r="P12">
-        <v>0.5910431122593254</v>
+        <v>0.2940099254493623</v>
       </c>
       <c r="Q12">
-        <v>0.1887431843902222</v>
+        <v>0.05510114349522222</v>
       </c>
       <c r="R12">
-        <v>1.698688659512</v>
+        <v>0.4959102914570001</v>
       </c>
       <c r="S12">
-        <v>0.08694224906469648</v>
+        <v>0.02782419941281927</v>
       </c>
       <c r="T12">
-        <v>0.08694224906469647</v>
+        <v>0.02782419941281927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2792846666666667</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H13">
-        <v>0.837854</v>
+        <v>0.416059</v>
       </c>
       <c r="I13">
-        <v>0.1470996738839413</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J13">
-        <v>0.1470996738839413</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4387876666666667</v>
+        <v>0.09972066666666667</v>
       </c>
       <c r="N13">
-        <v>1.316363</v>
+        <v>0.299162</v>
       </c>
       <c r="O13">
-        <v>0.3837508825877036</v>
+        <v>0.07379385859429018</v>
       </c>
       <c r="P13">
-        <v>0.3837508825877035</v>
+        <v>0.07379385859429016</v>
       </c>
       <c r="Q13">
-        <v>0.1225466672224445</v>
+        <v>0.01382989361755555</v>
       </c>
       <c r="R13">
-        <v>1.102920005002</v>
+        <v>0.124469042558</v>
       </c>
       <c r="S13">
-        <v>0.05644962968132585</v>
+        <v>0.006983624902563201</v>
       </c>
       <c r="T13">
-        <v>0.05644962968132583</v>
+        <v>0.006983624902563201</v>
       </c>
     </row>
   </sheetData>
